--- a/Assets/StreamingAssets/WrongChoice4.xlsx
+++ b/Assets/StreamingAssets/WrongChoice4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B3DDB8-5D45-9C4D-8EA5-094F109CB680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A605C8-B9C2-9642-8B88-68B44462CE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -153,15 +153,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Who has the strongest motive to do so?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Let’s review the character profiles we have so far.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Among these people, who has the greatest ability to destroy the bridge?</t>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Among these people, who has the greatest ability to destroy the bridge?)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Who has the strongest motive to do so?)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;color=#00CC00&gt;(Let’s review the character profiles we have so far.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,7 +561,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -631,7 +631,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -655,12 +655,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="17">
+    <row r="3" spans="1:16" ht="34">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -675,12 +675,12 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="17">
+    <row r="4" spans="1:16" ht="34">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
